--- a/RiskRegister.xlsx
+++ b/RiskRegister.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffaa5fcd33f076d1/Documents/GitHub/Project_ECEN3753_HarkonnenPong_Week1/Project_ECEN3753_HarkonnenPong_Tommy_Ramirez/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3B79663-22B9-4BA4-8CDD-D8C7ADA278E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{A01CB07F-3B78-4C15-9DA2-401F7AAB9027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1980" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Item</t>
   </si>
@@ -71,9 +71,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Test with other slider code if time is available</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -92,13 +89,16 @@
     <t>O</t>
   </si>
   <si>
-    <t>See if there is a faster timer</t>
-  </si>
-  <si>
     <t>Use own judgement for which PWMs are distinct enough</t>
   </si>
   <si>
     <t>My slider is sticking after some time operating</t>
+  </si>
+  <si>
+    <t>Changed goal from changing brightness to blinking rate</t>
+  </si>
+  <si>
+    <t>Test with other slider code if time is available or rely on unit tests</t>
   </si>
 </sst>
 </file>
@@ -278,13 +278,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -299,13 +299,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,7 +1523,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,88 +1585,90 @@
         <v>44631</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
-        <v>910</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2">
-        <v>44631</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>44635</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
-        <f>B4*C4</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="E4" s="2">
-        <v>44635</v>
+        <v>44637</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2">
-        <v>44637</v>
+        <v>44631</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/RiskRegister.xlsx
+++ b/RiskRegister.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffaa5fcd33f076d1/Documents/GitHub/Project_ECEN3753_HarkonnenPong_Week1/Project_ECEN3753_HarkonnenPong_Tommy_Ramirez/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{A01CB07F-3B78-4C15-9DA2-401F7AAB9027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{02B1A892-D90B-44EF-934C-78F32540FE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Item</t>
   </si>
@@ -68,9 +68,6 @@
     <t>I will too long to figure out the LCD screen</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -98,7 +95,13 @@
     <t>Changed goal from changing brightness to blinking rate</t>
   </si>
   <si>
-    <t>Test with other slider code if time is available or rely on unit tests</t>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>New includes seemingly made the problem disappear</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -305,7 +308,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,7 +1526,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,18 +1588,18 @@
         <v>44631</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
@@ -1612,18 +1615,18 @@
         <v>44635</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1640,35 +1643,37 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>44631</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/RiskRegister.xlsx
+++ b/RiskRegister.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffaa5fcd33f076d1/Documents/GitHub/Project_ECEN3753_HarkonnenPong_Week1/Project_ECEN3753_HarkonnenPong_Tommy_Ramirez/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{02B1A892-D90B-44EF-934C-78F32540FE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="14_{02B1A892-D90B-44EF-934C-78F32540FE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F97A59F-511E-4CA4-A47C-857DF4A0DC4A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Item</t>
   </si>
@@ -83,12 +83,6 @@
     <t>Changes in PWM can't be recognized/decoded</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Use own judgement for which PWMs are distinct enough</t>
-  </si>
-  <si>
     <t>My slider is sticking after some time operating</t>
   </si>
   <si>
@@ -102,6 +96,9 @@
   </si>
   <si>
     <t>New includes seemingly made the problem disappear</t>
+  </si>
+  <si>
+    <t>Differences have been made very noticable</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1523,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1618,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1641,17 +1638,19 @@
       <c r="E4" s="2">
         <v>44637</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1667,13 +1666,13 @@
         <v>44631</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/RiskRegister.xlsx
+++ b/RiskRegister.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffaa5fcd33f076d1/Documents/GitHub/Project_ECEN3753_HarkonnenPong_Week1/Project_ECEN3753_HarkonnenPong_Tommy_Ramirez/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{02B1A892-D90B-44EF-934C-78F32540FE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F97A59F-511E-4CA4-A47C-857DF4A0DC4A}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="14_{02B1A892-D90B-44EF-934C-78F32540FE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB58A5E0-D8C6-4D83-934B-15354525E079}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Item</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Differences have been made very noticable</t>
+  </si>
+  <si>
+    <t>Program Freezing</t>
+  </si>
+  <si>
+    <t>Restart demo and that fixes the issue most of the time</t>
   </si>
 </sst>
 </file>
@@ -286,6 +292,9 @@
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -306,6 +315,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,7 +1535,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,10 +1597,10 @@
         <v>44631</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -1676,12 +1688,31 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1">

--- a/RiskRegister.xlsx
+++ b/RiskRegister.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffaa5fcd33f076d1/Documents/GitHub/Project_ECEN3753_HarkonnenPong_Week1/Project_ECEN3753_HarkonnenPong_Tommy_Ramirez/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="14_{02B1A892-D90B-44EF-934C-78F32540FE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB58A5E0-D8C6-4D83-934B-15354525E079}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{C7E47CFB-2284-4B3C-819E-0A66E61528EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,13 +98,13 @@
     <t>New includes seemingly made the problem disappear</t>
   </si>
   <si>
-    <t>Differences have been made very noticable</t>
-  </si>
-  <si>
     <t>Program Freezing</t>
   </si>
   <si>
     <t>Restart demo and that fixes the issue most of the time</t>
+  </si>
+  <si>
+    <t>Reread instructions and noticed only 3 PWMs were needed instead of 5</t>
   </si>
 </sst>
 </file>
@@ -1534,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1547,7 @@
     <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="51.28515625" customWidth="1"/>
+    <col min="8" max="8" width="66.5703125" customWidth="1"/>
     <col min="9" max="9" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1651,13 +1651,13 @@
         <v>44637</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1689,7 +1689,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
@@ -1711,7 +1711,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
